--- a/data/evaluation/evaluation_South_Summer_Peppers.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Peppers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2252.530370861492</v>
+        <v>2217.80322734347</v>
       </c>
       <c r="C4" t="n">
-        <v>12791047.42963528</v>
+        <v>12454164.04184114</v>
       </c>
       <c r="D4" t="n">
-        <v>3576.45738540742</v>
+        <v>3529.045769303812</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2333739287969878</v>
+        <v>-0.2008900223901187</v>
       </c>
     </row>
     <row r="5">
